--- a/biology/Médecine/Salem_Shentoub/Salem_Shentoub.xlsx
+++ b/biology/Médecine/Salem_Shentoub/Salem_Shentoub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salem Shentoub, né à Bagdad le 5 juin 1917 et mort à Paris 5e le 14 décembre 1990[1], est un psychanalyste français.
-Il a passé son enfance en Irak, avant que sa famille, de confession juive, ne quitte ce pays, d'abord pour Téhéran, puis la France. Il a étudié la psychologie, notamment avec Daniel Lagache. Pendant la Seconde Guerre mondiale, sa femme, Vica Shentoub, et lui ont dû se cacher pour éviter des rafles[2]. Il a été arrêté à deux reprises, s'est rapidement échappé la première fois puis a été libéré la deuxième. il a été lié au Parti communiste français jusqu'en 1949.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salem Shentoub, né à Bagdad le 5 juin 1917 et mort à Paris 5e le 14 décembre 1990, est un psychanalyste français.
+Il a passé son enfance en Irak, avant que sa famille, de confession juive, ne quitte ce pays, d'abord pour Téhéran, puis la France. Il a étudié la psychologie, notamment avec Daniel Lagache. Pendant la Seconde Guerre mondiale, sa femme, Vica Shentoub, et lui ont dû se cacher pour éviter des rafles. Il a été arrêté à deux reprises, s'est rapidement échappé la première fois puis a été libéré la deuxième. il a été lié au Parti communiste français jusqu'en 1949.
 Il a été analysé par Sacha Nacht. Avec Jean Delay il a écrit un article sur la narcoanalyse. Comme psychologue, il a eu de la peine à accéder au titre de membre formateur de la Société psychanalytique de Paris mais y parvient en 1966. Clinicien, il n'était pas un théoricien mais sa collaboration avec Alain de Mijolla a donné naissance à un livre sur l'alcoolisme.
 Il a été enterré en Israël.
 </t>
